--- a/Skripsi/Parameter Tuning.xlsx
+++ b/Skripsi/Parameter Tuning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GDrive\Skripsi\Repos\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C7F56D-B17B-4C33-973F-E20B9F5D2CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943DF94E-A587-49EB-B79E-720FC7D38A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,8 +675,12 @@
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="10">
+        <v>0.93069999999999997</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.95230000000000004</v>
+      </c>
     </row>
     <row r="6" spans="1:9" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
@@ -751,8 +755,12 @@
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="E10" s="11">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.94779999999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
@@ -795,8 +803,12 @@
       <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="6">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.9274</v>
+      </c>
     </row>
     <row r="14" spans="1:9" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
@@ -823,8 +835,12 @@
       <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="6">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.9546</v>
+      </c>
     </row>
     <row r="16" spans="1:9" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
@@ -867,8 +883,12 @@
       <c r="D18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="E18" s="12">
+        <v>0.87350000000000005</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0.90920000000000001</v>
+      </c>
     </row>
     <row r="19" spans="1:6" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23"/>

--- a/Skripsi/Parameter Tuning.xlsx
+++ b/Skripsi/Parameter Tuning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GDrive\Skripsi\Repos\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943DF94E-A587-49EB-B79E-720FC7D38A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F7E616-56FA-4736-98DD-AD9C201D1BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
   <si>
     <t>Resize</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>['auto', 0.0024, 0.0032, 0.0048, 0.0056]</t>
+  </si>
+  <si>
+    <t>Kesimpulan</t>
   </si>
 </sst>
 </file>
@@ -212,11 +215,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -285,6 +285,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -302,6 +314,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>290272</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114556</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B587421-4152-4EFF-BBFC-86FC5CEDF7B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="708660"/>
+          <a:ext cx="8215072" cy="2949196"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -567,372 +628,515 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.6640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="7"/>
+    <col min="3" max="3" width="15.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" style="7" customWidth="1"/>
+    <col min="5" max="6" width="10.6640625" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+    <row r="2" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
         <v>128</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>180</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>0.90229999999999999</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>0.9274</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="2">
+    <row r="3" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="1">
         <v>250</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>0.90869999999999995</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>0.92510000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="2">
+    <row r="4" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="1">
         <v>500</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>0.92349999999999999</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>0.94779999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="2">
+    <row r="5" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="1">
         <v>750</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>0.93069999999999997</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>0.95230000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="2">
+    <row r="6" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="1">
         <v>1000</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="E6" s="9">
+        <v>0.92230000000000001</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.94550000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
         <v>160</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>180</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>0.89229999999999998</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>0.90920000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="3">
+    <row r="8" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="2">
         <v>250</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>0.90790000000000004</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>0.95009999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="3">
+    <row r="9" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="2">
         <v>500</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>0.91710000000000003</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>0.93869999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="3">
+    <row r="10" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="2">
         <v>750</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>0.91669999999999996</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>0.94779999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="3">
+    <row r="11" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="2">
         <v>1000</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+      <c r="E11" s="10">
+        <v>0.92390000000000005</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.9365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
         <v>192</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>180</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>0.89390000000000003</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>0.92510000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="4">
+    <row r="13" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="3">
         <v>250</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>0.90590000000000004</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>0.9274</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="4">
+    <row r="14" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="3">
         <v>500</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>0.91749999999999998</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>0.94550000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="4">
+    <row r="15" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="3">
         <v>750</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>0.92349999999999999</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>0.9546</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="4">
+    <row r="16" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="3">
         <v>1000</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="E16" s="5">
+        <v>0.93469999999999998</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.94550000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
         <v>224</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>180</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>0.87070000000000003</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>0.91379999999999995</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="5">
+      <c r="H17" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="4">
         <v>250</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>0.87350000000000005</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>0.90920000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="5">
+    <row r="19" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="4">
         <v>500</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>0.90910000000000002</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>0.94330000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="5">
+      <c r="H19" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="4">
         <v>750</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="5">
+      <c r="E20" s="11">
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0.93189999999999995</v>
+      </c>
+      <c r="H20" s="25">
+        <v>128</v>
+      </c>
+      <c r="I20" s="26">
+        <f>AVERAGE(E2:E6)</f>
+        <v>0.91749999999999987</v>
+      </c>
+      <c r="J20" s="26">
+        <f>AVERAGE(F2:F6)</f>
+        <v>0.93962000000000001</v>
+      </c>
+      <c r="L20" s="25">
+        <v>180</v>
+      </c>
+      <c r="M20" s="26">
+        <f>AVERAGE(E2,E7,E12,E17)</f>
+        <v>0.88979999999999992</v>
+      </c>
+      <c r="N20" s="26">
+        <f>AVERAGE(F2,F7,F12,F17)</f>
+        <v>0.91887500000000011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="4">
         <v>1000</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="E21" s="11">
+        <v>0.92430000000000001</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.95009999999999994</v>
+      </c>
+      <c r="H21" s="25">
+        <v>160</v>
+      </c>
+      <c r="I21" s="26">
+        <f>AVERAGE(E7:E11)</f>
+        <v>0.91158000000000006</v>
+      </c>
+      <c r="J21" s="26">
+        <f>AVERAGE(F7:F11)</f>
+        <v>0.93645999999999996</v>
+      </c>
+      <c r="L21" s="25">
+        <v>250</v>
+      </c>
+      <c r="M21" s="26">
+        <f>AVERAGE(E3,E8,E13,E18)</f>
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="N21" s="26">
+        <f>AVERAGE(F3,F8,F13,F18)</f>
+        <v>0.92795000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="25">
+        <v>192</v>
+      </c>
+      <c r="I22" s="26">
+        <f>AVERAGE(E12:E16)</f>
+        <v>0.91510000000000002</v>
+      </c>
+      <c r="J22" s="26">
+        <f>AVERAGE(F12:F16)</f>
+        <v>0.93962000000000001</v>
+      </c>
+      <c r="L22" s="25">
+        <v>500</v>
+      </c>
+      <c r="M22" s="26">
+        <f>AVERAGE(E4,E9,E14,E19)</f>
+        <v>0.91679999999999995</v>
+      </c>
+      <c r="N22" s="26">
+        <f>AVERAGE(F4,F9,F14,F19)</f>
+        <v>0.94382499999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="25">
+        <v>224</v>
+      </c>
+      <c r="I23" s="26">
+        <f>AVERAGE(E17:E21)</f>
+        <v>0.89982000000000006</v>
+      </c>
+      <c r="J23" s="26">
+        <f>AVERAGE(F17:F21)</f>
+        <v>0.92965999999999993</v>
+      </c>
+      <c r="L23" s="25">
+        <v>750</v>
+      </c>
+      <c r="M23" s="26">
+        <f>AVERAGE(E5,E10,E15,E20)</f>
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="N23" s="26">
+        <f>AVERAGE(F5,F10,F15,F20)</f>
+        <v>0.94664999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="25">
+        <v>1000</v>
+      </c>
+      <c r="M24" s="26">
+        <f>AVERAGE(E6,E11,E16,E21)</f>
+        <v>0.92630000000000001</v>
+      </c>
+      <c r="N24" s="26">
+        <f>AVERAGE(F6,F11,F16,F21)</f>
+        <v>0.94440000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A2:A6"/>
@@ -946,5 +1150,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I20:J21 I22:I23 J22:J23" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Skripsi/Parameter Tuning.xlsx
+++ b/Skripsi/Parameter Tuning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GDrive\Skripsi\Repos\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE20E28-50C3-411D-9445-F91400BB7A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C8FF89-BF3B-4F71-9913-F86B677B5AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -208,15 +208,37 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.10234</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.10447, 0.1066, 0.10873, 0.11086]</t>
+      <t>0.08475</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.08652, 0.08829, 0.09006, 0.09183]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.23885, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>0.24383</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.24881, 0.25379, 0.25877]</t>
     </r>
   </si>
   <si>
@@ -230,37 +252,37 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.08475</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.08652, 0.08829, 0.09006, 0.09183]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[0.23885, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>0.24383</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.24881, 0.25379, 0.25877]</t>
+      <t>0.19131</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.1953, 0.19929, 0.20328, 0.20727]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.11421, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>0.11659</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.11897, 0.12135, 0.12373]</t>
     </r>
   </si>
   <si>
@@ -274,37 +296,15 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.19131</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.1953, 0.19929, 0.20328, 0.20727]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[0.11421, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>0.11659</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.11897, 0.12135, 0.12373]</t>
+      <t>0.09026</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.09214, 0.09402, 0.0959, 0.09778]</t>
     </r>
   </si>
   <si>
@@ -318,15 +318,15 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.09026</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.09214, 0.09402, 0.0959, 0.09778]</t>
+      <t>0.07609</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.07767, 0.07925, 0.08083, 0.08241]</t>
     </r>
   </si>
   <si>
@@ -340,15 +340,15 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.07609</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.07767, 0.07925, 0.08083, 0.08241]</t>
+      <t>0.24574</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.25086, 0.25598, 0.2611, 0.26622]</t>
     </r>
   </si>
   <si>
@@ -362,15 +362,15 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.24574</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.25086, 0.25598, 0.2611, 0.26622]</t>
+      <t>0.20504</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.20931, 0.21358, 0.21785, 0.22212]</t>
     </r>
   </si>
   <si>
@@ -384,15 +384,15 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.20504</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.20931, 0.21358, 0.21785, 0.22212]</t>
+      <t>0.13567</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.1385, 0.14133, 0.14416, 0.14699]</t>
     </r>
   </si>
   <si>
@@ -406,15 +406,15 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.13567</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.1385, 0.14133, 0.14416, 0.14699]</t>
+      <t>0.10508</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.10727, 0.10946, 0.11165, 0.11384]</t>
     </r>
   </si>
   <si>
@@ -428,15 +428,15 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.10508</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.10727, 0.10946, 0.11165, 0.11384]</t>
+      <t>0.09142</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.09332, 0.09522, 0.09712, 0.09902]</t>
     </r>
   </si>
   <si>
@@ -450,15 +450,15 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.09142</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.09332, 0.09522, 0.09712, 0.09902]</t>
+      <t>0.08725</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.08907, 0.09089, 0.09271, 0.09453]</t>
     </r>
   </si>
   <si>
@@ -472,15 +472,15 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.08725</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.08907, 0.09089, 0.09271, 0.09453]</t>
+      <t>0.10009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.10217, 0.10425, 0.10633, 0.10841]</t>
     </r>
   </si>
   <si>
@@ -494,15 +494,37 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.10009</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.10217, 0.10425, 0.10633, 0.10841]</t>
+      <t>0.13022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.13293, 0.13564, 0.13835, 0.14106]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.20114, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>0.20533</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.20952, 0.21371, 0.2179]</t>
     </r>
   </si>
   <si>
@@ -516,37 +538,15 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.13022</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.13293, 0.13564, 0.13835, 0.14106]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[0.20114, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>0.20533</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.20952, 0.21371, 0.2179]</t>
+      <t>0.25495</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.26026, 0.26557, 0.27088, 0.27619]</t>
     </r>
   </si>
   <si>
@@ -560,15 +560,15 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.25495</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.26026, 0.26557, 0.27088, 0.27619]</t>
+      <t>0.10235</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.10448, 0.10661, 0.10874, 0.11087]</t>
     </r>
   </si>
 </sst>
@@ -1070,20 +1070,20 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="4"/>
-    <col min="4" max="4" width="15.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="46.44140625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="10.6640625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="4" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" style="4"/>
+    <col min="4" max="4" width="15.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="6">
         <v>0.8931</v>
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="6">
         <v>0.90629999999999999</v>
@@ -1168,7 +1168,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="6">
         <v>0.91549999999999998</v>
@@ -1192,7 +1192,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="6">
         <v>0.91990000000000005</v>
@@ -1216,7 +1216,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="6">
         <v>0.91269999999999996</v>
@@ -1240,7 +1240,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7">
         <v>0.89070000000000005</v>
@@ -1266,7 +1266,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7">
         <v>0.89949999999999997</v>
@@ -1290,7 +1290,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="7">
         <v>0.90629999999999999</v>
@@ -1314,7 +1314,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="7">
         <v>0.90790000000000004</v>
@@ -1338,7 +1338,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="7">
         <v>0.90069999999999995</v>
@@ -1362,7 +1362,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F15" s="14">
         <v>0.92110000000000003</v>
@@ -1460,7 +1460,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="14">
         <v>0.92669999999999997</v>
@@ -1484,7 +1484,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="8">
         <v>0.85829999999999995</v>
@@ -1513,7 +1513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="8">
         <v>0.87990000000000002</v>
@@ -1537,7 +1537,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" s="8">
         <v>0.89190000000000003</v>
@@ -1579,7 +1579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="8">
         <v>0.90910000000000002</v>
@@ -1625,7 +1625,7 @@
         <v>0.91397499999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" s="8">
         <v>0.90469999999999995</v>
@@ -1671,7 +1671,7 @@
         <v>0.91602500000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I22" s="10">
         <v>192</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>0.93362499999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I23" s="10">
         <v>224</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>0.93587500000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M24" s="10">
         <v>1000</v>
       </c>

--- a/Skripsi/Parameter Tuning.xlsx
+++ b/Skripsi/Parameter Tuning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GDrive\Skripsi\Repos\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C8FF89-BF3B-4F71-9913-F86B677B5AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DDA1CD-AB7F-4120-BB6F-05B1AFEF85CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,6 +199,28 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">[0.23885, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>0.24383</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.24881, 0.25379, 0.25877]</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>[</t>
     </r>
     <r>
@@ -208,37 +230,37 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.08475</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.08652, 0.08829, 0.09006, 0.09183]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[0.23885, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>0.24383</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.24881, 0.25379, 0.25877]</t>
+      <t>0.19131</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.1953, 0.19929, 0.20328, 0.20727]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.11421, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>0.11659</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.11897, 0.12135, 0.12373]</t>
     </r>
   </si>
   <si>
@@ -252,37 +274,15 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.19131</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.1953, 0.19929, 0.20328, 0.20727]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[0.11421, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>0.11659</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.11897, 0.12135, 0.12373]</t>
+      <t>0.09026</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.09214, 0.09402, 0.0959, 0.09778]</t>
     </r>
   </si>
   <si>
@@ -296,15 +296,15 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.09026</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.09214, 0.09402, 0.0959, 0.09778]</t>
+      <t>0.07609</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.07767, 0.07925, 0.08083, 0.08241]</t>
     </r>
   </si>
   <si>
@@ -318,15 +318,15 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.07609</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.07767, 0.07925, 0.08083, 0.08241]</t>
+      <t>0.24574</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.25086, 0.25598, 0.2611, 0.26622]</t>
     </r>
   </si>
   <si>
@@ -340,15 +340,15 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.24574</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.25086, 0.25598, 0.2611, 0.26622]</t>
+      <t>0.20504</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.20931, 0.21358, 0.21785, 0.22212]</t>
     </r>
   </si>
   <si>
@@ -362,15 +362,15 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.20504</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.20931, 0.21358, 0.21785, 0.22212]</t>
+      <t>0.13567</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.1385, 0.14133, 0.14416, 0.14699]</t>
     </r>
   </si>
   <si>
@@ -384,15 +384,15 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.13567</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.1385, 0.14133, 0.14416, 0.14699]</t>
+      <t>0.10508</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.10727, 0.10946, 0.11165, 0.11384]</t>
     </r>
   </si>
   <si>
@@ -406,15 +406,15 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.10508</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.10727, 0.10946, 0.11165, 0.11384]</t>
+      <t>0.09142</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.09332, 0.09522, 0.09712, 0.09902]</t>
     </r>
   </si>
   <si>
@@ -428,15 +428,15 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.09142</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.09332, 0.09522, 0.09712, 0.09902]</t>
+      <t>0.08725</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.08907, 0.09089, 0.09271, 0.09453]</t>
     </r>
   </si>
   <si>
@@ -450,15 +450,15 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.08725</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.08907, 0.09089, 0.09271, 0.09453]</t>
+      <t>0.10009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.10217, 0.10425, 0.10633, 0.10841]</t>
     </r>
   </si>
   <si>
@@ -472,15 +472,37 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.10009</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.10217, 0.10425, 0.10633, 0.10841]</t>
+      <t>0.13022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.13293, 0.13564, 0.13835, 0.14106]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.20114, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>0.20533</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.20952, 0.21371, 0.2179]</t>
     </r>
   </si>
   <si>
@@ -494,37 +516,15 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.13022</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.13293, 0.13564, 0.13835, 0.14106]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[0.20114, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>0.20533</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.20952, 0.21371, 0.2179]</t>
+      <t>0.25495</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.26026, 0.26557, 0.27088, 0.27619]</t>
     </r>
   </si>
   <si>
@@ -538,15 +538,15 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.25495</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.26026, 0.26557, 0.27088, 0.27619]</t>
+      <t>0.10235</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.10448, 0.10661, 0.10874, 0.11087]</t>
     </r>
   </si>
   <si>
@@ -560,15 +560,15 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>0.10235</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>, 0.10448, 0.10661, 0.10874, 0.11087]</t>
+      <t>0.08487</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, 0.08664, 0.08841, 0.09018, 0.09195]</t>
     </r>
   </si>
 </sst>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1126,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="6">
         <v>0.8931</v>
@@ -1156,7 +1156,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="6">
         <v>0.90629999999999999</v>
@@ -1180,7 +1180,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="6">
         <v>0.91549999999999998</v>
@@ -1204,7 +1204,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="6">
         <v>0.91990000000000005</v>
@@ -1228,7 +1228,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="6">
         <v>0.91269999999999996</v>
@@ -1254,7 +1254,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7">
         <v>0.89070000000000005</v>
@@ -1278,7 +1278,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7">
         <v>0.89949999999999997</v>
@@ -1302,7 +1302,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7">
         <v>0.90629999999999999</v>
@@ -1326,7 +1326,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="7">
         <v>0.90790000000000004</v>
@@ -1350,7 +1350,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7">
         <v>0.90069999999999995</v>
@@ -1448,7 +1448,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="14">
         <v>0.92110000000000003</v>
@@ -1472,13 +1472,13 @@
         <v>10</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F16" s="14">
         <v>0.92669999999999997</v>
       </c>
       <c r="G16" s="14">
-        <v>0.95230000000000004</v>
+        <v>0.95009999999999994</v>
       </c>
       <c r="H16" s="17">
         <v>0.02</v>
@@ -1498,7 +1498,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="8">
         <v>0.85829999999999995</v>
@@ -1525,7 +1525,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="8">
         <v>0.87990000000000002</v>
@@ -1549,7 +1549,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="8">
         <v>0.89190000000000003</v>
@@ -1591,7 +1591,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="8">
         <v>0.90910000000000002</v>
@@ -1637,7 +1637,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" s="8">
         <v>0.90469999999999995</v>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="K22" s="11">
         <f>AVERAGE(G12:G16)</f>
-        <v>0.93144000000000005</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="M22" s="10">
         <v>500</v>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="O24" s="11">
         <f t="shared" si="0"/>
-        <v>0.93872500000000003</v>
+        <v>0.93817499999999998</v>
       </c>
     </row>
   </sheetData>
